--- a/corridor_docs/eric_ms_thesis/ms_data/data_raw/btl_weight_equalibrium.xlsx
+++ b/corridor_docs/eric_ms_thesis/ms_data/data_raw/btl_weight_equalibrium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericescobar-chena/corridor_thesis/corridor_docs/eric_ms_thesis/ms_data/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD27FFF-2685-4544-BDC5-B2FB9FC52C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C21B412-FECA-7843-870B-685EA2909EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="16000" windowHeight="16020" xr2:uid="{379C6978-D86A-8D4B-8EC5-AD95C6A80C17}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/corridor_docs/eric_ms_thesis/ms_data/data_raw/btl_weight_equalibrium.xlsx
+++ b/corridor_docs/eric_ms_thesis/ms_data/data_raw/btl_weight_equalibrium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericescobar-chena/corridor_thesis/corridor_docs/eric_ms_thesis/ms_data/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C21B412-FECA-7843-870B-685EA2909EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D62CB7-6352-F042-8F41-C3A606BC0A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="16000" windowHeight="16020" xr2:uid="{379C6978-D86A-8D4B-8EC5-AD95C6A80C17}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>sample_id</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>plate</t>
+  </si>
+  <si>
+    <t>weight_2</t>
+  </si>
+  <si>
+    <t>weight_3</t>
   </si>
 </sst>
 </file>
@@ -431,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3387B5-7F6B-6746-9302-0F25C685EF43}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +458,14 @@
       <c r="D1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -466,8 +478,14 @@
       <c r="D2">
         <v>1.4450000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="F2">
+        <v>1.4450000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -480,8 +498,14 @@
       <c r="D3">
         <v>2.8519999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>2.8439999999999999</v>
+      </c>
+      <c r="F3">
+        <v>2.835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -494,8 +518,14 @@
       <c r="D4">
         <v>2.2759999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>2.2719999999999998</v>
+      </c>
+      <c r="F4">
+        <v>2.2679999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -508,8 +538,14 @@
       <c r="D5">
         <v>1.571</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1.571</v>
+      </c>
+      <c r="F5">
+        <v>1.571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -522,8 +558,14 @@
       <c r="D6">
         <v>4.32</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>4.1280000000000001</v>
+      </c>
+      <c r="F6">
+        <v>4.0990000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -536,8 +578,14 @@
       <c r="D7">
         <v>2.4630000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="F7">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -550,8 +598,14 @@
       <c r="D8">
         <v>1.4570000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.4550000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -564,8 +618,14 @@
       <c r="D9">
         <v>8.0280000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>6.8330000000000002</v>
+      </c>
+      <c r="F9">
+        <v>5.6790000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -578,8 +638,14 @@
       <c r="D10">
         <v>7.26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>5.6749999999999998</v>
+      </c>
+      <c r="F10">
+        <v>5.2839999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -592,8 +658,14 @@
       <c r="D11">
         <v>3.044</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>2.76</v>
+      </c>
+      <c r="F11">
+        <v>2.7229999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -606,8 +678,14 @@
       <c r="D12">
         <v>1.466</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>1.466</v>
+      </c>
+      <c r="F12">
+        <v>1.464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -620,8 +698,14 @@
       <c r="D13">
         <v>4.0949999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>3.8410000000000002</v>
+      </c>
+      <c r="F13">
+        <v>3.8109999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -634,8 +718,14 @@
       <c r="D14">
         <v>2.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="F14">
+        <v>2.5249999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -648,8 +738,14 @@
       <c r="D15">
         <v>1.8109999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="F15">
+        <v>1.8069999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -662,8 +758,14 @@
       <c r="D16">
         <v>1.956</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>1.95</v>
+      </c>
+      <c r="F16">
+        <v>1.9450000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -675,6 +777,12 @@
       </c>
       <c r="D17">
         <v>1.615</v>
+      </c>
+      <c r="E17">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="F17">
+        <v>1.611</v>
       </c>
     </row>
   </sheetData>
